--- a/RTG.xlsx
+++ b/RTG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayakrak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\עומר קידר\CI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E397E4C8-32D9-480E-B946-EFD5F965D3B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E35ABF-700B-422C-9F57-834A5ED7279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{65645BFF-CA34-47FC-B3AD-56114F71B710}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65645BFF-CA34-47FC-B3AD-56114F71B710}"/>
   </bookViews>
   <sheets>
     <sheet name="RTG" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,7 +468,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,21 +678,7 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>106</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>190</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2">
-        <v>43874</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
@@ -705,21 +691,7 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>107</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>55</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>43871</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="5"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -733,21 +705,7 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>108</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>130</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>43903</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="G10" s="5"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -761,21 +719,7 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>109</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>190</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>43823</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -789,21 +733,7 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>110</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>80</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2">
-        <v>43824</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -816,21 +746,7 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>111</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>70</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43893</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -843,628 +759,138 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>112</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>55</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2">
-        <v>43837</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>113</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>240</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2">
-        <v>43855</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>114</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>55</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2">
-        <v>43843</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>115</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>130</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2">
-        <v>43950</v>
-      </c>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>116</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>70</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2">
-        <v>43845</v>
-      </c>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>117</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>55</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2">
-        <v>43878</v>
-      </c>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>118</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>200</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2">
-        <v>43893</v>
-      </c>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>119</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2">
-        <v>43795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>120</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>70</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22" s="2">
-        <v>43880</v>
-      </c>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>121</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>200</v>
-      </c>
-      <c r="D23">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2">
-        <v>43874</v>
-      </c>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="2"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>122</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>70</v>
-      </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
-      <c r="E24" s="2">
-        <v>43812</v>
-      </c>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="2"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>123</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>220</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-      <c r="E25" s="2">
-        <v>43945</v>
-      </c>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="2"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>124</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>190</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26" s="2">
-        <v>43877</v>
-      </c>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E26" s="2"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>125</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>70</v>
-      </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27" s="2">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>126</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>55</v>
-      </c>
-      <c r="D28">
-        <v>27</v>
-      </c>
-      <c r="E28" s="2">
-        <v>43824</v>
-      </c>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E28" s="2"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>127</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>240</v>
-      </c>
-      <c r="D29">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>128</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>70</v>
-      </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
-      <c r="E30" s="2">
-        <v>43894</v>
-      </c>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E30" s="2"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>129</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>210</v>
-      </c>
-      <c r="D31">
-        <v>30</v>
-      </c>
-      <c r="E31" s="2">
-        <v>43903</v>
-      </c>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E31" s="2"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>130</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>110</v>
-      </c>
-      <c r="D32">
-        <v>31</v>
-      </c>
-      <c r="E32" s="2">
-        <v>43872</v>
-      </c>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>131</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
-        <v>190</v>
-      </c>
-      <c r="D33">
-        <v>32</v>
-      </c>
-      <c r="E33" s="2">
-        <v>43845</v>
-      </c>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>132</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>70</v>
-      </c>
-      <c r="D34">
-        <v>33</v>
-      </c>
-      <c r="E34" s="2">
-        <v>43811</v>
-      </c>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>133</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>70</v>
-      </c>
-      <c r="D35">
-        <v>34</v>
-      </c>
-      <c r="E35" s="2">
-        <v>43882</v>
-      </c>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>134</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>70</v>
-      </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-      <c r="E36" s="2">
-        <v>43836</v>
-      </c>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="2"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>135</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>70</v>
-      </c>
-      <c r="D37">
-        <v>36</v>
-      </c>
-      <c r="E37" s="2">
-        <v>43825</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>136</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38">
-        <v>70</v>
-      </c>
-      <c r="D38">
-        <v>37</v>
-      </c>
-      <c r="E38" s="2">
-        <v>43871</v>
-      </c>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>137</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>190</v>
-      </c>
-      <c r="D39">
-        <v>38</v>
-      </c>
-      <c r="E39" s="2">
-        <v>43923</v>
-      </c>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E39" s="2"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>138</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>70</v>
-      </c>
-      <c r="D40">
-        <v>39</v>
-      </c>
-      <c r="E40" s="2">
-        <v>43945</v>
-      </c>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>139</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>190</v>
-      </c>
-      <c r="D41">
-        <v>40</v>
-      </c>
-      <c r="E41" s="2">
-        <v>43892</v>
-      </c>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E41" s="2"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>140</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>70</v>
-      </c>
-      <c r="D42">
-        <v>41</v>
-      </c>
-      <c r="E42" s="2">
-        <v>43915</v>
-      </c>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>141</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>220</v>
-      </c>
-      <c r="D43">
-        <v>42</v>
-      </c>
-      <c r="E43" s="2">
-        <v>43905</v>
-      </c>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="2"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>142</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>55</v>
-      </c>
-      <c r="D44">
-        <v>43</v>
-      </c>
-      <c r="E44" s="2">
-        <v>43915</v>
-      </c>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E44" s="2"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>143</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>190</v>
-      </c>
-      <c r="D45">
-        <v>44</v>
-      </c>
-      <c r="E45" s="2">
-        <v>43826</v>
-      </c>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E45" s="2"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>144</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>120</v>
-      </c>
-      <c r="D46">
-        <v>45</v>
-      </c>
-      <c r="E46" s="2">
-        <v>43903</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>145</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>55</v>
-      </c>
-      <c r="D47">
-        <v>46</v>
-      </c>
-      <c r="E47" s="2">
-        <v>43942</v>
-      </c>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E47" s="2"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>146</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>130</v>
-      </c>
-      <c r="D48">
-        <v>47</v>
-      </c>
-      <c r="E48" s="2">
-        <v>43801</v>
-      </c>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E48" s="2"/>
       <c r="H48" s="5"/>
     </row>
   </sheetData>
